--- a/data/trans_dic/IP16A112_2023R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16A112_2023R-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,81; 69,47</t>
+          <t>25,47; 70,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,69; 58,99</t>
+          <t>10,88; 59,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,09; 57,63</t>
+          <t>24,71; 59,96</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,35; 48,81</t>
+          <t>32,15; 49,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,34; 54,35</t>
+          <t>32,87; 54,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,13; 49,41</t>
+          <t>36,17; 49,2</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36,38; 65,15</t>
+          <t>38,83; 65,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,98; 63,32</t>
+          <t>37,26; 62,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40,51; 59,55</t>
+          <t>41,84; 59,36</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,93; 50,82</t>
+          <t>37,01; 50,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,26; 53,24</t>
+          <t>37,47; 53,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,46; 49,72</t>
+          <t>39,76; 49,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A112_2023R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16A112_2023R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>47,28%</t>
+          <t>25,56%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>33,03%</t>
+          <t>44,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>35,17%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,47; 70,73</t>
+          <t>4,13; 54,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,88; 59,28</t>
+          <t>21,68; 65,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,71; 59,96</t>
+          <t>16,04; 52,78</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>40,68%</t>
+          <t>38,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>45,48%</t>
+          <t>40,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>42,95%</t>
+          <t>39,34%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,15; 49,01</t>
+          <t>19,96; 52,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,87; 54,41</t>
+          <t>32,9; 48,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,17; 49,2</t>
+          <t>26,8; 46,77</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>51,34%</t>
+          <t>49,83%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>50,23%</t>
+          <t>52,29%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>50,8%</t>
+          <t>51,13%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,83; 65,57</t>
+          <t>37,2; 61,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,26; 62,16</t>
+          <t>37,75; 64,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>41,84; 59,36</t>
+          <t>40,93; 59,68</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>43,95%</t>
+          <t>39,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>45,8%</t>
+          <t>43,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>44,83%</t>
+          <t>41,88%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,01; 50,02</t>
+          <t>23,77; 49,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,47; 53,55</t>
+          <t>37,26; 50,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,76; 49,83</t>
+          <t>31,87; 46,96</t>
         </is>
       </c>
     </row>
